--- a/Bomberman/Format.xlsx
+++ b/Bomberman/Format.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week" sheetId="1" r:id="rId1"/>
+    <sheet name="Month" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -127,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -163,11 +164,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -175,20 +231,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -469,14 +545,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C5"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -490,16 +566,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -514,7 +590,7 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
@@ -523,278 +599,385 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>43364</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5">
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="8">
         <v>43371</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="5">
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="8">
         <v>43378</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5">
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="8">
         <v>43385</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5">
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="8">
         <v>43392</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5">
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="8">
         <v>43399</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="5">
+      <c r="C28" s="11"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="10"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8">
         <v>43406</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="5">
+      <c r="C33" s="11"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="10"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="8">
         <v>43413</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="5">
+      <c r="C38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="10"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="8">
         <v>43414</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="5">
+      <c r="C43" s="11"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="10"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="8">
         <v>43415</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="10"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>